--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H2">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I2">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J2">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>5.501270079222667</v>
+        <v>2.144924320658889</v>
       </c>
       <c r="R2">
-        <v>49.511430713004</v>
+        <v>19.30431888593</v>
       </c>
       <c r="S2">
-        <v>0.01358407231344975</v>
+        <v>0.01689712171177343</v>
       </c>
       <c r="T2">
-        <v>0.01738014938699547</v>
+        <v>0.01877600144054721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H3">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I3">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J3">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>36.22936378611167</v>
+        <v>10.85820083861389</v>
       </c>
       <c r="R3">
-        <v>326.064274075005</v>
+        <v>97.723807547525</v>
       </c>
       <c r="S3">
-        <v>0.08945975937439496</v>
+        <v>0.08553790890141018</v>
       </c>
       <c r="T3">
-        <v>0.1144593422483627</v>
+        <v>0.09504931834841537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H4">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I4">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J4">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>30.42581707264267</v>
+        <v>12.65528618335833</v>
       </c>
       <c r="R4">
-        <v>273.832353653784</v>
+        <v>113.897575650225</v>
       </c>
       <c r="S4">
-        <v>0.07512928712072475</v>
+        <v>0.09969485117863856</v>
       </c>
       <c r="T4">
-        <v>0.09612421101467669</v>
+        <v>0.1107804454081071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H5">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I5">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J5">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>13.4379773094115</v>
+        <v>3.865696857635833</v>
       </c>
       <c r="R5">
-        <v>80.62786385646901</v>
+        <v>23.194181145815</v>
       </c>
       <c r="S5">
-        <v>0.03318187489230415</v>
+        <v>0.03045289275484912</v>
       </c>
       <c r="T5">
-        <v>0.02830304635514625</v>
+        <v>0.02255940658561884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H6">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I6">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J6">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>31.32237769798134</v>
+        <v>14.66917464058889</v>
       </c>
       <c r="R6">
-        <v>281.901399281832</v>
+        <v>132.0225717653</v>
       </c>
       <c r="S6">
-        <v>0.07734312941397808</v>
+        <v>0.115559708529553</v>
       </c>
       <c r="T6">
-        <v>0.09895671285125003</v>
+        <v>0.1284093995907176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J7">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>1.339006325909778</v>
+        <v>1.741945137882445</v>
       </c>
       <c r="R7">
-        <v>12.051056933188</v>
+        <v>15.677506240942</v>
       </c>
       <c r="S7">
-        <v>0.003306356259079581</v>
+        <v>0.01372256294850998</v>
       </c>
       <c r="T7">
-        <v>0.00423031947883065</v>
+        <v>0.01524844681148842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J8">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>8.818208630859445</v>
@@ -948,10 +948,10 @@
         <v>79.363877677735</v>
       </c>
       <c r="S8">
-        <v>0.02177445971414793</v>
+        <v>0.06946741340956571</v>
       </c>
       <c r="T8">
-        <v>0.02785934540986687</v>
+        <v>0.07719186003970617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J9">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>7.405628326649778</v>
+        <v>10.27766528790167</v>
       </c>
       <c r="R9">
-        <v>66.650654939848</v>
+        <v>92.49898759111501</v>
       </c>
       <c r="S9">
-        <v>0.01828643009105946</v>
+        <v>0.08096461008432998</v>
       </c>
       <c r="T9">
-        <v>0.02339658383758635</v>
+        <v>0.08996749041095549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J10">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>3.270796809757167</v>
+        <v>3.139426310210167</v>
       </c>
       <c r="R10">
-        <v>19.624780858543</v>
+        <v>18.836557861261</v>
       </c>
       <c r="S10">
-        <v>0.008076451391497612</v>
+        <v>0.02473153386244863</v>
       </c>
       <c r="T10">
-        <v>0.006888947018833425</v>
+        <v>0.01832104202317983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J11">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>7.623850724678223</v>
+        <v>11.91319301842445</v>
       </c>
       <c r="R11">
-        <v>68.61465652210401</v>
+        <v>107.21873716582</v>
       </c>
       <c r="S11">
-        <v>0.01882527817387376</v>
+        <v>0.09384884607319446</v>
       </c>
       <c r="T11">
-        <v>0.02408601333708453</v>
+        <v>0.1042843922841728</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H12">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I12">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J12">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>0.1238336093915556</v>
+        <v>0.7879401765646669</v>
       </c>
       <c r="R12">
-        <v>1.114502484524</v>
+        <v>7.091461589082002</v>
       </c>
       <c r="S12">
-        <v>0.0003057775169344297</v>
+        <v>0.006207175207430899</v>
       </c>
       <c r="T12">
-        <v>0.0003912272255973651</v>
+        <v>0.006897383626895796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H13">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I13">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J13">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>0.8155231099338889</v>
+        <v>3.988771353631667</v>
       </c>
       <c r="R13">
-        <v>7.339707989404999</v>
+        <v>35.898942182685</v>
       </c>
       <c r="S13">
-        <v>0.002013739507258789</v>
+        <v>0.03142243966073621</v>
       </c>
       <c r="T13">
-        <v>0.002576480208221463</v>
+        <v>0.03491646579810124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H14">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I14">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J14">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>0.6848852524115555</v>
+        <v>4.648932521185001</v>
       </c>
       <c r="R14">
-        <v>6.163967271703999</v>
+        <v>41.84039269066501</v>
       </c>
       <c r="S14">
-        <v>0.00169116052496889</v>
+        <v>0.03662300710738091</v>
       </c>
       <c r="T14">
-        <v>0.002163756337799161</v>
+        <v>0.04069531165927694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H15">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I15">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J15">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>0.3024889178648333</v>
+        <v>1.4200677549385</v>
       </c>
       <c r="R15">
-        <v>1.814933507189</v>
+        <v>8.520406529631002</v>
       </c>
       <c r="S15">
-        <v>0.0007469241239058865</v>
+        <v>0.01118690177693064</v>
       </c>
       <c r="T15">
-        <v>0.0006371016758787292</v>
+        <v>0.008287221435769005</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H16">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I16">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J16">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>0.7050668353324445</v>
+        <v>5.388736537246668</v>
       </c>
       <c r="R16">
-        <v>6.345601517992</v>
+        <v>48.49862883522001</v>
       </c>
       <c r="S16">
-        <v>0.001740994123001578</v>
+        <v>0.04245097892990786</v>
       </c>
       <c r="T16">
-        <v>0.002227515964390817</v>
+        <v>0.04717132628483236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H17">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I17">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J17">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>10.70596238562067</v>
+        <v>1.350015937296</v>
       </c>
       <c r="R17">
-        <v>64.23577431372401</v>
+        <v>8.100095623776001</v>
       </c>
       <c r="S17">
-        <v>0.0264358166636119</v>
+        <v>0.01063505289469471</v>
       </c>
       <c r="T17">
-        <v>0.02254888088436159</v>
+        <v>0.007878413530116186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H18">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I18">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J18">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>70.50557423348417</v>
+        <v>6.83415449268</v>
       </c>
       <c r="R18">
-        <v>423.033445400905</v>
+        <v>41.00492695608</v>
       </c>
       <c r="S18">
-        <v>0.1740966731493901</v>
+        <v>0.05383758258865009</v>
       </c>
       <c r="T18">
-        <v>0.148498727887337</v>
+        <v>0.03988271081441992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H19">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I19">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J19">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>59.21135454915067</v>
+        <v>7.96524048612</v>
       </c>
       <c r="R19">
-        <v>355.268127294904</v>
+        <v>47.79144291672</v>
       </c>
       <c r="S19">
-        <v>0.1462082956099161</v>
+        <v>0.06274796581921875</v>
       </c>
       <c r="T19">
-        <v>0.1247108604195882</v>
+        <v>0.04648349451501173</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H20">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I20">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J20">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>26.15150275147225</v>
+        <v>2.433070629252</v>
       </c>
       <c r="R20">
-        <v>104.606011005889</v>
+        <v>9.732282517007999</v>
       </c>
       <c r="S20">
-        <v>0.06457488895574734</v>
+        <v>0.01916705879076575</v>
       </c>
       <c r="T20">
-        <v>0.03672016889591789</v>
+        <v>0.009465930999116487</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H21">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I21">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J21">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>60.95614151526535</v>
+        <v>9.232782416160001</v>
       </c>
       <c r="R21">
-        <v>365.7368490915921</v>
+        <v>55.39669449696</v>
       </c>
       <c r="S21">
-        <v>0.1505166302268225</v>
+        <v>0.07273331125093209</v>
       </c>
       <c r="T21">
-        <v>0.1283857279420399</v>
+        <v>0.05388060681252913</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H22">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I22">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J22">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>1.385368694753333</v>
+        <v>0.136227516282</v>
       </c>
       <c r="R22">
-        <v>12.46831825278</v>
+        <v>1.226047646538</v>
       </c>
       <c r="S22">
-        <v>0.003420837053864097</v>
+        <v>0.001073162768932778</v>
       </c>
       <c r="T22">
-        <v>0.004376791999690748</v>
+        <v>0.001192493374855892</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H23">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I23">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J23">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>9.123534328858334</v>
+        <v>0.689621408685</v>
       </c>
       <c r="R23">
-        <v>82.111808959725</v>
+        <v>6.206592678164999</v>
       </c>
       <c r="S23">
-        <v>0.02252838858894288</v>
+        <v>0.00543264709405485</v>
       </c>
       <c r="T23">
-        <v>0.02882396015636903</v>
+        <v>0.006036731663765284</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H24">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I24">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J24">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>7.662044196653333</v>
+        <v>0.8037571246649999</v>
       </c>
       <c r="R24">
-        <v>68.95839776987999</v>
+        <v>7.233814121985</v>
       </c>
       <c r="S24">
-        <v>0.01891958782923337</v>
+        <v>0.006331776758444146</v>
       </c>
       <c r="T24">
-        <v>0.0242066778816308</v>
+        <v>0.007035840278935477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H25">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I25">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J25">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>3.3840463778675</v>
+        <v>0.2455164858465</v>
       </c>
       <c r="R25">
-        <v>20.304278267205</v>
+        <v>1.473098915079</v>
       </c>
       <c r="S25">
-        <v>0.008356094146811145</v>
+        <v>0.001934111102959961</v>
       </c>
       <c r="T25">
-        <v>0.007127473078382741</v>
+        <v>0.00143278338464203</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H26">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I26">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J26">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>7.887822427026668</v>
+        <v>0.93166234722</v>
       </c>
       <c r="R26">
-        <v>70.99040184324001</v>
+        <v>8.38496112498</v>
       </c>
       <c r="S26">
-        <v>0.01947709323508093</v>
+        <v>0.007339378794687273</v>
       </c>
       <c r="T26">
-        <v>0.02491997850416168</v>
+        <v>0.00815548287882379</v>
       </c>
     </row>
   </sheetData>
